--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Ccl12</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.847985951666361</v>
+        <v>0.857148</v>
       </c>
       <c r="H2">
-        <v>0.847985951666361</v>
+        <v>2.571444</v>
       </c>
       <c r="I2">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="J2">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.221803199990388</v>
+        <v>0.2315733333333333</v>
       </c>
       <c r="N2">
-        <v>0.221803199990388</v>
+        <v>0.69472</v>
       </c>
       <c r="O2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="P2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="Q2">
-        <v>0.1880859976264934</v>
+        <v>0.19849261952</v>
       </c>
       <c r="R2">
-        <v>0.1880859976264934</v>
+        <v>1.78643357568</v>
       </c>
       <c r="S2">
-        <v>0.01437574681168383</v>
+        <v>0.01135106691647428</v>
       </c>
       <c r="T2">
-        <v>0.01437574681168383</v>
+        <v>0.01135106691647428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.847985951666361</v>
+        <v>0.857148</v>
       </c>
       <c r="H3">
-        <v>0.847985951666361</v>
+        <v>2.571444</v>
       </c>
       <c r="I3">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="J3">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.575904546607758</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N3">
-        <v>0.575904546607758</v>
+        <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="P3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="Q3">
-        <v>0.4883589650241639</v>
+        <v>0.6172282747760001</v>
       </c>
       <c r="R3">
-        <v>0.4883589650241639</v>
+        <v>5.555054472984001</v>
       </c>
       <c r="S3">
-        <v>0.03732614295055022</v>
+        <v>0.03529702749988853</v>
       </c>
       <c r="T3">
-        <v>0.03732614295055022</v>
+        <v>0.03529702749988854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.5534638902266</v>
+        <v>0.857148</v>
       </c>
       <c r="H4">
-        <v>15.5534638902266</v>
+        <v>2.571444</v>
       </c>
       <c r="I4">
-        <v>0.9482981102377659</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="J4">
-        <v>0.9482981102377659</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.221803199990388</v>
+        <v>0.02498966666666666</v>
       </c>
       <c r="N4">
-        <v>0.221803199990388</v>
+        <v>0.07496899999999999</v>
       </c>
       <c r="O4">
-        <v>0.2780507033262193</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="P4">
-        <v>0.2780507033262193</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="Q4">
-        <v>3.449808061787209</v>
+        <v>0.021419842804</v>
       </c>
       <c r="R4">
-        <v>3.449808061787209</v>
+        <v>0.192778585236</v>
       </c>
       <c r="S4">
-        <v>0.2636749565145354</v>
+        <v>0.001224922466117515</v>
       </c>
       <c r="T4">
-        <v>0.2636749565145354</v>
+        <v>0.001224922466117516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>15.94278666666667</v>
+      </c>
+      <c r="H5">
+        <v>47.82836</v>
+      </c>
+      <c r="I5">
+        <v>0.8904288352152905</v>
+      </c>
+      <c r="J5">
+        <v>0.8904288352152906</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2315733333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.69472</v>
+      </c>
+      <c r="O5">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="P5">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="Q5">
+        <v>3.691924251022222</v>
+      </c>
+      <c r="R5">
+        <v>33.2273182592</v>
+      </c>
+      <c r="S5">
+        <v>0.2111276445706078</v>
+      </c>
+      <c r="T5">
+        <v>0.2111276445706078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>15.94278666666667</v>
+      </c>
+      <c r="H6">
+        <v>47.82836</v>
+      </c>
+      <c r="I6">
+        <v>0.8904288352152905</v>
+      </c>
+      <c r="J6">
+        <v>0.8904288352152906</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.160286</v>
+      </c>
+      <c r="O6">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="P6">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="Q6">
+        <v>11.48032627899556</v>
+      </c>
+      <c r="R6">
+        <v>103.32293651096</v>
+      </c>
+      <c r="S6">
+        <v>0.6565178701906668</v>
+      </c>
+      <c r="T6">
+        <v>0.6565178701906669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15.94278666666667</v>
+      </c>
+      <c r="H7">
+        <v>47.82836</v>
+      </c>
+      <c r="I7">
+        <v>0.8904288352152905</v>
+      </c>
+      <c r="J7">
+        <v>0.8904288352152906</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P7">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q7">
+        <v>0.3984049245377778</v>
+      </c>
+      <c r="R7">
+        <v>3.58564432084</v>
+      </c>
+      <c r="S7">
+        <v>0.02278332045401585</v>
+      </c>
+      <c r="T7">
+        <v>0.02278332045401586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.314045</v>
+      </c>
+      <c r="I8">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J8">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2315733333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.69472</v>
+      </c>
+      <c r="O8">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="P8">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="Q8">
+        <v>0.2558148158222223</v>
+      </c>
+      <c r="R8">
+        <v>2.3023333424</v>
+      </c>
+      <c r="S8">
+        <v>0.01462911366500963</v>
+      </c>
+      <c r="T8">
+        <v>0.01462911366500963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>15.5534638902266</v>
-      </c>
-      <c r="H5">
-        <v>15.5534638902266</v>
-      </c>
-      <c r="I5">
-        <v>0.9482981102377659</v>
-      </c>
-      <c r="J5">
-        <v>0.9482981102377659</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.575904546607758</v>
-      </c>
-      <c r="N5">
-        <v>0.575904546607758</v>
-      </c>
-      <c r="O5">
-        <v>0.7219492966737807</v>
-      </c>
-      <c r="P5">
-        <v>0.7219492966737807</v>
-      </c>
-      <c r="Q5">
-        <v>8.957310569881086</v>
-      </c>
-      <c r="R5">
-        <v>8.957310569881086</v>
-      </c>
-      <c r="S5">
-        <v>0.6846231537232305</v>
-      </c>
-      <c r="T5">
-        <v>0.6846231537232305</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.314045</v>
+      </c>
+      <c r="I9">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J9">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.160286</v>
+      </c>
+      <c r="O9">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="P9">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="Q9">
+        <v>0.7954761129855558</v>
+      </c>
+      <c r="R9">
+        <v>7.159285016870001</v>
+      </c>
+      <c r="S9">
+        <v>0.0454903694192322</v>
+      </c>
+      <c r="T9">
+        <v>0.0454903694192322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.314045</v>
+      </c>
+      <c r="I10">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J10">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q10">
+        <v>0.02760562662277778</v>
+      </c>
+      <c r="R10">
+        <v>0.248450639605</v>
+      </c>
+      <c r="S10">
+        <v>0.001578664817987256</v>
+      </c>
+      <c r="T10">
+        <v>0.001578664817987257</v>
       </c>
     </row>
   </sheetData>
